--- a/pyla2/tratamento_pyla2.xlsx
+++ b/pyla2/tratamento_pyla2.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E867B979-2B5C-4CE7-9EF4-83E20C9E38BC}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C30464A-165F-4EF3-BF1A-5BE633DD8017}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -12,13 +12,11 @@
     <sheet name="filtrado" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlchart.v1.0" hidden="1">Plan1!#REF!</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">Plan1!$B$1:$B$112</definedName>
-    <definedName name="_xlchart.v1.2" hidden="1">Plan1!$B$2:$B$112</definedName>
-    <definedName name="_xlchart.v1.3" hidden="1">Plan1!$B$2:$B$120</definedName>
-    <definedName name="_xlchart.v1.4" hidden="1">filtrado!$C$1</definedName>
-    <definedName name="_xlchart.v1.5" hidden="1">filtrado!$C$2:$C$118</definedName>
-    <definedName name="_xlchart.v1.6" hidden="1">filtrado!$C$2:$C$98</definedName>
+    <definedName name="_xlchart.v1.0" hidden="1">Plan1!$B$2:$B$120</definedName>
+    <definedName name="_xlchart.v1.1" hidden="1">filtrado!$C$1</definedName>
+    <definedName name="_xlchart.v1.2" hidden="1">filtrado!$C$2:$C$118</definedName>
+    <definedName name="_xlchart.v1.3" hidden="1">filtrado!$F$1</definedName>
+    <definedName name="_xlchart.v1.4" hidden="1">filtrado!$F$2:$F$118</definedName>
   </definedNames>
   <calcPr calcId="179021"/>
   <extLst>
@@ -30,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="14">
   <si>
     <t>Id</t>
   </si>
@@ -64,12 +62,24 @@
   <si>
     <t>Limiar Brilho do ligante</t>
   </si>
+  <si>
+    <t>min</t>
+  </si>
+  <si>
+    <t>max</t>
+  </si>
+  <si>
+    <t>coeficiante de variaçao</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.0%"/>
+  </numFmts>
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -92,6 +102,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -110,17 +127,21 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Porcentagem" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -2147,12 +2168,1144 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="pt-BR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>filtrado!$F$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Cobrimento</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="x"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>filtrado!$B$2:$B$118</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="117"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>59</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>61</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>62</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>63</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>66</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>67</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>68</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>69</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>71</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>73</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>74</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>76</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>77</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>78</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>79</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>81</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>82</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>83</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>84</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>86</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>87</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>88</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>89</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>91</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>92</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>93</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>94</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>95</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>96</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>97</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>98</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>99</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>101</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>102</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>103</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>104</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>105</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>106</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>107</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>108</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>109</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>110</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>111</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>112</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>113</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>114</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>115</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>116</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>117</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>118</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>119</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>filtrado!$F$2:$F$118</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="117"/>
+                <c:pt idx="0">
+                  <c:v>46.002024291497897</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>74.351515151515102</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>34.652928416485899</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>37.448672324117098</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>29.273308957952398</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32.038628886766404</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>43.773012778860704</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>39.402515723270398</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>31.078551078551001</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>32.968636032093301</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>57.959518599562301</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>52.329155828801099</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>38.350542758803201</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>51.9552354000514</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>44.173640167363999</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>46.330085009330197</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>61.724241064752498</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>59.532710280373799</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>56.365468592542797</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>65.313582146979599</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>64.774147473665394</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>55.345911949685501</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>70.111306385471593</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>41.8921340261601</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>34.944027207028398</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>56.743859649122797</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>34.108711132209798</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>58.736559139784902</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>42.858694471597602</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>53.763326226012701</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>50.453277545327701</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>46.3369963369963</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>71.529870590320797</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>54.825462012320301</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>85.663484933557896</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>49.373650107991303</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>33.361823361823298</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>35.561660561660503</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>75.289017341040406</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>56.4123016928121</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>39.836715091847701</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>66.306990881458901</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>62.8030091947617</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>69.193442622950798</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>75.995276653171302</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>43.368316668043903</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>44.500116522954997</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>69.191359734145607</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>37.504547108039198</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>49.984404242046097</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>51.792618629173901</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>59.7054424116902</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>69.077979401667406</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>45.899788285109302</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>58.932818073721698</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>60.036231884057898</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>40.974570963296998</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>69.903884661593906</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>75.673279397096294</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>39.2245109918642</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>44.856334673217198</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>62.1626069782751</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>48.650703154694</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>59.731543624160999</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>61.007571345369797</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>46.748101683724002</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>61.293153891164401</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>53.247237054513803</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>70.804704786304796</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>39.668544370969002</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>78.791469194312796</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>47.669349429912799</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>38.283433133732501</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>34.8435814455231</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>72.404237978810102</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>60.085343837190202</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>47.7902419245844</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>50.548342367326299</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>51.523586287723397</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>48.174783796085499</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>53.832309972475102</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>44.634012107870099</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>68.691027620518099</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>54.023218574859797</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>50.089331291475197</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>81.054239877769206</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>61.916150815981901</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>45.934755332496799</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>40.029112081513802</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>49.659863945578202</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>49.708389412292497</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>55.618241654913</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>65.612648221343804</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>29.926448053938</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>48.700505843362897</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>59.2757223166427</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>40.544908797044499</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>66.318729785357206</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>54.280762564991299</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>56.715830875122897</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>50.094473311289498</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>71.860060843111697</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>31.777326761380099</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>38.2550335570469</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>57.8753513618299</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>45.568746548867999</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>73.517838405036699</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>57.519195128408697</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>48.026845637583797</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>70.599644415710301</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>79.045702788157499</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>57.338204592901803</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>47.348205052444897</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>77.656903765690302</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>60.288640595903097</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>55.4164398475775</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>83.894260188471407</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-7B84-4DF0-A5F6-982B29E13B90}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>média</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:srgbClr val="FF0000"/>
+                </a:solidFill>
+                <a:prstDash val="solid"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>filtrado!$G$9:$G$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>119</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>filtrado!$H$9:$H$10</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>53.828627794508591</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>53.828627794508591</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-7B84-4DF0-A5F6-982B29E13B90}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="841016384"/>
+        <c:axId val="842969072"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="841016384"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="120"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="pt-BR"/>
+                  <a:t>Nº da partícula</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="pt-BR"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-BR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="842969072"/>
+        <c:crossesAt val="0"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="842969072"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="100"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="pt-BR"/>
+                  <a:t>Valor da área de cobrimento (%)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="pt-BR"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-BR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="841016384"/>
+        <c:crossesAt val="0"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:noFill/>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr sz="1000">
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+          <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+          <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+        </a:defRPr>
+      </a:pPr>
+      <a:endParaRPr lang="pt-BR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/chartEx1.xml><?xml version="1.0" encoding="utf-8"?>
 <cx:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex">
   <cx:chartData>
     <cx:data id="0">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.3</cx:f>
+        <cx:f>_xlchart.v1.0</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -2212,7 +3365,7 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.5</cx:f>
+        <cx:f>_xlchart.v1.2</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -2250,8 +3403,74 @@
         <cx:series layoutId="boxWhisker" uniqueId="{AE582C71-A888-454F-86A2-796C8767D210}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.4</cx:f>
+              <cx:f>_xlchart.v1.1</cx:f>
               <cx:v>Pixels Agregados</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:dataId val="0"/>
+          <cx:layoutPr>
+            <cx:statistics quartileMethod="exclusive"/>
+          </cx:layoutPr>
+        </cx:series>
+      </cx:plotAreaRegion>
+      <cx:axis id="0">
+        <cx:catScaling/>
+        <cx:tickLabels/>
+      </cx:axis>
+      <cx:axis id="1">
+        <cx:valScaling/>
+        <cx:tickLabels/>
+      </cx:axis>
+    </cx:plotArea>
+  </cx:chart>
+</cx:chartSpace>
+</file>
+
+<file path=xl/charts/chartEx3.xml><?xml version="1.0" encoding="utf-8"?>
+<cx:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex">
+  <cx:chartData>
+    <cx:data id="0">
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v1.4</cx:f>
+      </cx:numDim>
+    </cx:data>
+  </cx:chartData>
+  <cx:chart>
+    <cx:title pos="t" align="ctr" overlay="0">
+      <cx:tx>
+        <cx:txData>
+          <cx:v>Área de Cobrimento</cx:v>
+        </cx:txData>
+      </cx:tx>
+      <cx:txPr>
+        <a:bodyPr spcFirstLastPara="1" vertOverflow="ellipsis" horzOverflow="overflow" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr" rtl="0">
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="pt-BR" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:sysClr>
+              </a:solidFill>
+              <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+            </a:rPr>
+            <a:t>Área de Cobrimento</a:t>
+          </a:r>
+        </a:p>
+      </cx:txPr>
+    </cx:title>
+    <cx:plotArea>
+      <cx:plotAreaRegion>
+        <cx:series layoutId="boxWhisker" uniqueId="{EF4A6508-E631-4AE3-8660-8541F5C192BA}">
+          <cx:tx>
+            <cx:txData>
+              <cx:f>_xlchart.v1.3</cx:f>
+              <cx:v>Cobrimento</cx:v>
             </cx:txData>
           </cx:tx>
           <cx:dataId val="0"/>
@@ -2433,6 +3652,86 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="406">
   <cs:axisTitle>
@@ -3980,6 +5279,1037 @@
 </file>
 
 <file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="406">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat">
+        <a:solidFill>
+          <a:srgbClr val="D9D9D9"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -4727,6 +7057,122 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>7620</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>411480</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>7620</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" Requires="cx1">
+        <xdr:graphicFrame macro="">
+          <xdr:nvGraphicFramePr>
+            <xdr:cNvPr id="6" name="Gráfico 5">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8F64CB8A-0CD9-4E77-9738-3D4D81A36A89}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvGraphicFramePr/>
+          </xdr:nvGraphicFramePr>
+          <xdr:xfrm>
+            <a:off x="0" y="0"/>
+            <a:ext cx="0" cy="0"/>
+          </xdr:xfrm>
+          <a:graphic>
+            <a:graphicData uri="http://schemas.microsoft.com/office/drawing/2014/chartex">
+              <cx:chart xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+            </a:graphicData>
+          </a:graphic>
+        </xdr:graphicFrame>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="0" name=""/>
+            <xdr:cNvSpPr>
+              <a:spLocks noTextEdit="1"/>
+            </xdr:cNvSpPr>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="6088380" y="3116580"/>
+              <a:ext cx="3459480" cy="2743200"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:prstClr val="white"/>
+            </a:solidFill>
+            <a:ln w="1">
+              <a:solidFill>
+                <a:prstClr val="green"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="pt-BR" sz="1100"/>
+                <a:t>Este gráfico não está disponível na sua versão de Excel.
+Editar esta forma ou salvar esta pasta de trabalho em um formato de arquivo diferente quebrará o gráfico permanentemente.</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>594360</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>66360</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>148320</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="7" name="Gráfico 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6528A4CD-46CD-4A3F-A42A-5E39163AA822}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -7096,7 +9542,7 @@
   <dimension ref="A1:H118"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K21" sqref="K21"/>
+      <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7211,7 +9657,7 @@
         <v>34.652928416485899</v>
       </c>
       <c r="G4" s="2">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="H4" t="s">
         <v>9</v>
@@ -7238,7 +9684,7 @@
         <v>37.448672324117098</v>
       </c>
       <c r="G5" s="2">
-        <v>134</v>
+        <v>159</v>
       </c>
       <c r="H5" t="s">
         <v>10</v>
@@ -7264,6 +9710,13 @@
       <c r="F6">
         <v>29.273308957952398</v>
       </c>
+      <c r="G6">
+        <f>MIN(F2:F118)</f>
+        <v>29.273308957952398</v>
+      </c>
+      <c r="H6" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7">
@@ -7285,6 +9738,13 @@
       <c r="F7">
         <v>32.038628886766404</v>
       </c>
+      <c r="G7">
+        <f>MAX(F2:F118)</f>
+        <v>85.663484933557896</v>
+      </c>
+      <c r="H7" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8">
@@ -7306,6 +9766,13 @@
       <c r="F8">
         <v>43.773012778860704</v>
       </c>
+      <c r="G8" s="5">
+        <f>G3/G2</f>
+        <v>0.24840949110939467</v>
+      </c>
+      <c r="H8" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9">
@@ -7327,6 +9794,13 @@
       <c r="F9">
         <v>39.402515723270398</v>
       </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="H9" s="4">
+        <f>G2</f>
+        <v>53.828627794508591</v>
+      </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10">
@@ -7347,6 +9821,13 @@
       </c>
       <c r="F10">
         <v>31.078551078551001</v>
+      </c>
+      <c r="G10">
+        <v>119</v>
+      </c>
+      <c r="H10" s="4">
+        <f>G2</f>
+        <v>53.828627794508591</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
